--- a/小游戏数据bak.xlsx
+++ b/小游戏数据bak.xlsx
@@ -252,13 +252,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -274,6 +274,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\admin\AppData\Roaming\Tencent\Users\2043191\QQ\WinTemp\RichOle\4[YO)HAD76~UJ`WW{O~0523.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3600450"/>
+          <a:ext cx="4762500" cy="5210175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,7 +626,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,7 +1029,7 @@
       <c r="D17" s="3">
         <v>5200000</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <f>C17/D17</f>
         <v>6.4102564102564097E-2</v>
       </c>
@@ -988,7 +1048,7 @@
       <c r="D18" s="3">
         <v>20000000</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <f>C18/D18</f>
         <v>0.16666666666666669</v>
       </c>
@@ -997,7 +1057,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1011,11 +1072,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
     </row>

--- a/小游戏数据bak.xlsx
+++ b/小游戏数据bak.xlsx
@@ -626,7 +626,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -744,34 +744,34 @@
         <v>900000</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" s="3">
         <f>500000/25*I2*J2</f>
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="L2" s="3">
         <f>H2-K2</f>
-        <v>800000</v>
+        <v>780000</v>
       </c>
       <c r="M2" s="3">
         <f>L2*20%</f>
-        <v>160000</v>
+        <v>156000</v>
       </c>
       <c r="N2" s="3">
         <f>M2*50%</f>
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="O2" s="3">
         <f>M2*50%</f>
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="P2" s="3">
         <f>O2/I2</f>
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="R2">
         <v>1</v>

--- a/小游戏数据bak.xlsx
+++ b/小游戏数据bak.xlsx
@@ -626,7 +626,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -639,9 +639,10 @@
     <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
     <col min="21" max="25" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -744,34 +745,34 @@
         <v>900000</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" s="3">
-        <f>500000/25*I2*J2</f>
-        <v>120000</v>
+        <f>25000*I2*J2</f>
+        <v>300000</v>
       </c>
       <c r="L2" s="3">
         <f>H2-K2</f>
-        <v>780000</v>
+        <v>600000</v>
       </c>
       <c r="M2" s="3">
         <f>L2*20%</f>
-        <v>156000</v>
+        <v>120000</v>
       </c>
       <c r="N2" s="3">
         <f>M2*50%</f>
-        <v>78000</v>
+        <v>60000</v>
       </c>
       <c r="O2" s="3">
-        <f>M2*50%</f>
-        <v>78000</v>
+        <f>M2-N2</f>
+        <v>60000</v>
       </c>
       <c r="P2" s="3">
         <f>O2/I2</f>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -780,28 +781,28 @@
         <v>3</v>
       </c>
       <c r="T2" s="3">
-        <f>500000/25*R2*S2</f>
-        <v>60000</v>
+        <f>25000*R2*S2</f>
+        <v>75000</v>
       </c>
       <c r="U2" s="3">
         <f>H2-T2</f>
-        <v>840000</v>
+        <v>825000</v>
       </c>
       <c r="V2" s="3">
         <f>U2*100%</f>
-        <v>840000</v>
+        <v>825000</v>
       </c>
       <c r="W2" s="3">
         <f>V2*50%</f>
-        <v>420000</v>
+        <v>412500</v>
       </c>
       <c r="X2" s="3">
         <f>V2*50%</f>
-        <v>420000</v>
+        <v>412500</v>
       </c>
       <c r="Y2" s="3">
         <f>X2/R2</f>
-        <v>420000</v>
+        <v>412500</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
@@ -825,34 +826,34 @@
         <v>9000000</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" s="3">
-        <f>500000/25*I3*J3</f>
-        <v>200000</v>
+        <f>25000*I3*J3</f>
+        <v>525000</v>
       </c>
       <c r="L3" s="3">
         <f>H3-K3</f>
-        <v>8800000</v>
+        <v>8475000</v>
       </c>
       <c r="M3" s="3">
         <f>L3*20%</f>
-        <v>1760000</v>
+        <v>1695000</v>
       </c>
       <c r="N3" s="3">
         <f>M3*50%</f>
-        <v>880000</v>
+        <v>847500</v>
       </c>
       <c r="O3" s="3">
-        <f>M3*50%</f>
-        <v>880000</v>
+        <f>M3-N3</f>
+        <v>847500</v>
       </c>
       <c r="P3" s="3">
         <f>O3/I3</f>
-        <v>88000</v>
+        <v>121071.42857142857</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -861,28 +862,28 @@
         <v>3</v>
       </c>
       <c r="T3" s="3">
-        <f>500000/25*R3*S3</f>
-        <v>60000</v>
+        <f>25000*R3*S3</f>
+        <v>75000</v>
       </c>
       <c r="U3" s="3">
         <f>H3-T3</f>
-        <v>8940000</v>
+        <v>8925000</v>
       </c>
       <c r="V3" s="3">
         <f>U3*100%</f>
-        <v>8940000</v>
+        <v>8925000</v>
       </c>
       <c r="W3" s="3">
         <f>V3*50%</f>
-        <v>4470000</v>
+        <v>4462500</v>
       </c>
       <c r="X3" s="3">
         <f>V3*50%</f>
-        <v>4470000</v>
+        <v>4462500</v>
       </c>
       <c r="Y3" s="3">
         <f>X3/R3</f>
-        <v>4470000</v>
+        <v>4462500</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
@@ -937,28 +938,28 @@
         <v>3</v>
       </c>
       <c r="T5" s="3">
-        <f>500000/25*R5*S5</f>
-        <v>60000</v>
+        <f>25000*R5*S5</f>
+        <v>75000</v>
       </c>
       <c r="U5" s="3">
         <f>H5-T5</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="V5" s="3">
         <f>U5*100%</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="W5" s="3">
         <f>V5*50%</f>
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="X5" s="3">
         <f>V5*50%</f>
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Y5" s="3">
         <f>X5/R5</f>
-        <v>15000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">

--- a/小游戏数据bak.xlsx
+++ b/小游戏数据bak.xlsx
@@ -626,7 +626,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -745,34 +745,34 @@
         <v>900000</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="3">
         <f>25000*I2*J2</f>
-        <v>300000</v>
+        <v>125000</v>
       </c>
       <c r="L2" s="3">
         <f>H2-K2</f>
-        <v>600000</v>
+        <v>775000</v>
       </c>
       <c r="M2" s="3">
         <f>L2*20%</f>
-        <v>120000</v>
+        <v>155000</v>
       </c>
       <c r="N2" s="3">
         <f>M2*50%</f>
-        <v>60000</v>
+        <v>77500</v>
       </c>
       <c r="O2" s="3">
         <f>M2-N2</f>
-        <v>60000</v>
+        <v>77500</v>
       </c>
       <c r="P2" s="3">
         <f>O2/I2</f>
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="R2">
         <v>1</v>

--- a/小游戏数据bak.xlsx
+++ b/小游戏数据bak.xlsx
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0" shapeId="0">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,13 +282,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -623,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,7 +737,7 @@
         <v>30000</v>
       </c>
       <c r="F2" s="2">
-        <f>C2/$A$13</f>
+        <f>C2/$A$14</f>
         <v>3333333.3333333335</v>
       </c>
       <c r="H2" s="3">
@@ -818,7 +818,7 @@
         <v>300000</v>
       </c>
       <c r="F3" s="2">
-        <f>C3/$A$13</f>
+        <f>C3/$A$14</f>
         <v>33333333.333333336</v>
       </c>
       <c r="H3" s="3">
@@ -900,7 +900,7 @@
         <v>3000000</v>
       </c>
       <c r="F4" s="2">
-        <f>C4/$A$13</f>
+        <f>C4/$A$14</f>
         <v>333333333.33333337</v>
       </c>
     </row>
@@ -917,19 +917,43 @@
         <v>3000</v>
       </c>
       <c r="F5" s="2">
-        <f>C5/$A$13</f>
+        <f>C5/$A$14</f>
         <v>333333.33333333337</v>
       </c>
       <c r="H5" s="3">
         <f>E5*30</f>
         <v>90000</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="I5">
+        <v>2.5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <f>25000*I5*J5</f>
+        <v>62500</v>
+      </c>
+      <c r="L5" s="3">
+        <f>H5-K5</f>
+        <v>27500</v>
+      </c>
+      <c r="M5" s="3">
+        <f>L5*20%</f>
+        <v>5500</v>
+      </c>
+      <c r="N5" s="3">
+        <f>M5*50%</f>
+        <v>2750</v>
+      </c>
+      <c r="O5" s="3">
+        <f>M5-N5</f>
+        <v>2750</v>
+      </c>
+      <c r="P5" s="3">
+        <f>O5/I5</f>
+        <v>1100</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5">
         <v>1</v>
@@ -962,95 +986,153 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C6" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6*$A$2</f>
+        <v>3500</v>
+      </c>
+      <c r="E6" s="2">
+        <f>C6*$B$2</f>
+        <v>2100</v>
+      </c>
+      <c r="F6" s="2">
+        <f>C6/$A$14</f>
+        <v>233333.33333333334</v>
+      </c>
+      <c r="H6" s="3">
+        <f>E6*30</f>
+        <v>63000</v>
+      </c>
+      <c r="I6">
+        <v>2.5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <f>25000*I6*J6</f>
+        <v>62500</v>
+      </c>
+      <c r="L6" s="3">
+        <f>H6-K6</f>
+        <v>500</v>
+      </c>
+      <c r="M6" s="3">
+        <f>L6*20%</f>
+        <v>100</v>
+      </c>
+      <c r="N6" s="3">
+        <f>M6*50%</f>
+        <v>50</v>
+      </c>
+      <c r="O6" s="3">
+        <f>M6-N6</f>
+        <v>50</v>
+      </c>
+      <c r="P6" s="3">
+        <f>O6/I6</f>
+        <v>20</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <f>AVERAGE(A8:A9)</f>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <f>AVERAGE(A9:A10)</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <f>A11/1000000</f>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <f>A12/1000000</f>
         <v>0.03</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3">
-        <v>10000000</v>
-      </c>
-      <c r="C17" s="3">
-        <f>B17/30</f>
-        <v>333333.33333333331</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5200000</v>
-      </c>
-      <c r="E17" s="5">
-        <f>C17/D17</f>
-        <v>6.4102564102564097E-2</v>
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
       <c r="C18" s="3">
         <f>B18/30</f>
-        <v>3333333.3333333335</v>
+        <v>333333.33333333331</v>
       </c>
       <c r="D18" s="3">
-        <v>20000000</v>
+        <v>5200000</v>
       </c>
       <c r="E18" s="5">
         <f>C18/D18</f>
+        <v>6.4102564102564097E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="C19" s="3">
+        <f>B19/30</f>
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="E19" s="5">
+        <f>C19/D19</f>
         <v>0.16666666666666669</v>
       </c>
     </row>

--- a/小游戏数据bak.xlsx
+++ b/小游戏数据bak.xlsx
@@ -626,7 +626,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -751,28 +751,28 @@
         <v>2</v>
       </c>
       <c r="K2" s="3">
-        <f>25000*I2*J2</f>
-        <v>125000</v>
+        <f>30000*I2*J2</f>
+        <v>150000</v>
       </c>
       <c r="L2" s="3">
         <f>H2-K2</f>
-        <v>775000</v>
+        <v>750000</v>
       </c>
       <c r="M2" s="3">
         <f>L2*20%</f>
-        <v>155000</v>
+        <v>150000</v>
       </c>
       <c r="N2" s="3">
         <f>M2*50%</f>
-        <v>77500</v>
+        <v>75000</v>
       </c>
       <c r="O2" s="3">
         <f>M2-N2</f>
-        <v>77500</v>
+        <v>75000</v>
       </c>
       <c r="P2" s="3">
         <f>O2/I2</f>
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -832,28 +832,28 @@
         <v>3</v>
       </c>
       <c r="K3" s="3">
-        <f>25000*I3*J3</f>
-        <v>525000</v>
+        <f>30000*I3*J3</f>
+        <v>630000</v>
       </c>
       <c r="L3" s="3">
         <f>H3-K3</f>
-        <v>8475000</v>
+        <v>8370000</v>
       </c>
       <c r="M3" s="3">
         <f>L3*20%</f>
-        <v>1695000</v>
+        <v>1674000</v>
       </c>
       <c r="N3" s="3">
         <f>M3*50%</f>
-        <v>847500</v>
+        <v>837000</v>
       </c>
       <c r="O3" s="3">
         <f>M3-N3</f>
-        <v>847500</v>
+        <v>837000</v>
       </c>
       <c r="P3" s="3">
         <f>O3/I3</f>
-        <v>121071.42857142857</v>
+        <v>119571.42857142857</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -931,28 +931,28 @@
         <v>1</v>
       </c>
       <c r="K5" s="3">
-        <f>25000*I5*J5</f>
-        <v>62500</v>
+        <f>30000*I5*J5</f>
+        <v>75000</v>
       </c>
       <c r="L5" s="3">
         <f>H5-K5</f>
-        <v>27500</v>
+        <v>15000</v>
       </c>
       <c r="M5" s="3">
         <f>L5*20%</f>
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="N5" s="3">
         <f>M5*50%</f>
-        <v>2750</v>
+        <v>1500</v>
       </c>
       <c r="O5" s="3">
         <f>M5-N5</f>
-        <v>2750</v>
+        <v>1500</v>
       </c>
       <c r="P5" s="3">
         <f>O5/I5</f>
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5">
@@ -1013,28 +1013,28 @@
         <v>1</v>
       </c>
       <c r="K6" s="3">
-        <f>25000*I6*J6</f>
-        <v>62500</v>
+        <f>30000*I6*J6</f>
+        <v>75000</v>
       </c>
       <c r="L6" s="3">
         <f>H6-K6</f>
-        <v>500</v>
+        <v>-12000</v>
       </c>
       <c r="M6" s="3">
         <f>L6*20%</f>
-        <v>100</v>
+        <v>-2400</v>
       </c>
       <c r="N6" s="3">
         <f>M6*50%</f>
-        <v>50</v>
+        <v>-1200</v>
       </c>
       <c r="O6" s="3">
         <f>M6-N6</f>
-        <v>50</v>
+        <v>-1200</v>
       </c>
       <c r="P6" s="3">
         <f>O6/I6</f>
-        <v>20</v>
+        <v>-480</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="T6" s="3"/>

--- a/小游戏数据bak.xlsx
+++ b/小游戏数据bak.xlsx
@@ -626,7 +626,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -745,34 +745,34 @@
         <v>900000</v>
       </c>
       <c r="I2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2" s="3">
-        <f>30000*I2*J2</f>
-        <v>150000</v>
+        <f>100000/3*I2*J2</f>
+        <v>200000</v>
       </c>
       <c r="L2" s="3">
         <f>H2-K2</f>
-        <v>750000</v>
+        <v>700000</v>
       </c>
       <c r="M2" s="3">
         <f>L2*20%</f>
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="N2" s="3">
         <f>M2*50%</f>
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="O2" s="3">
         <f>M2-N2</f>
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="P2" s="3">
         <f>O2/I2</f>
-        <v>30000</v>
+        <v>23333.333333333332</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -826,34 +826,34 @@
         <v>9000000</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" s="3">
-        <f>30000*I3*J3</f>
-        <v>630000</v>
+        <f>100000/3*I3*J3</f>
+        <v>300000</v>
       </c>
       <c r="L3" s="3">
         <f>H3-K3</f>
-        <v>8370000</v>
+        <v>8700000</v>
       </c>
       <c r="M3" s="3">
         <f>L3*20%</f>
-        <v>1674000</v>
+        <v>1740000</v>
       </c>
       <c r="N3" s="3">
         <f>M3*50%</f>
-        <v>837000</v>
+        <v>870000</v>
       </c>
       <c r="O3" s="3">
         <f>M3-N3</f>
-        <v>837000</v>
+        <v>870000</v>
       </c>
       <c r="P3" s="3">
         <f>O3/I3</f>
-        <v>119571.42857142857</v>
+        <v>290000</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -925,34 +925,34 @@
         <v>90000</v>
       </c>
       <c r="I5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="3">
-        <f>30000*I5*J5</f>
-        <v>75000</v>
+        <f>100000/3*I5*J5</f>
+        <v>100000</v>
       </c>
       <c r="L5" s="3">
         <f>H5-K5</f>
-        <v>15000</v>
+        <v>-10000</v>
       </c>
       <c r="M5" s="3">
         <f>L5*20%</f>
-        <v>3000</v>
+        <v>-2000</v>
       </c>
       <c r="N5" s="3">
         <f>M5*50%</f>
-        <v>1500</v>
+        <v>-1000</v>
       </c>
       <c r="O5" s="3">
         <f>M5-N5</f>
-        <v>1500</v>
+        <v>-1000</v>
       </c>
       <c r="P5" s="3">
         <f>O5/I5</f>
-        <v>600</v>
+        <v>-333.33333333333331</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5">
@@ -1007,34 +1007,34 @@
         <v>63000</v>
       </c>
       <c r="I6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" s="3">
-        <f>30000*I6*J6</f>
-        <v>75000</v>
+        <f>100000/3*I6*J6</f>
+        <v>100000</v>
       </c>
       <c r="L6" s="3">
         <f>H6-K6</f>
-        <v>-12000</v>
+        <v>-37000</v>
       </c>
       <c r="M6" s="3">
         <f>L6*20%</f>
-        <v>-2400</v>
+        <v>-7400</v>
       </c>
       <c r="N6" s="3">
         <f>M6*50%</f>
-        <v>-1200</v>
+        <v>-3700</v>
       </c>
       <c r="O6" s="3">
         <f>M6-N6</f>
-        <v>-1200</v>
+        <v>-3700</v>
       </c>
       <c r="P6" s="3">
         <f>O6/I6</f>
-        <v>-480</v>
+        <v>-1233.3333333333333</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="T6" s="3"/>

--- a/小游戏数据bak.xlsx
+++ b/小游戏数据bak.xlsx
@@ -195,7 +195,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +225,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -259,6 +274,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -626,7 +645,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -639,19 +658,20 @@
     <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
-    <col min="21" max="25" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -660,7 +680,7 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
@@ -722,7 +742,7 @@
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>0.3</v>
       </c>
       <c r="C2" s="2">
@@ -732,7 +752,7 @@
         <f>C2*$A$2</f>
         <v>50000</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="11">
         <f>C2*$B$2</f>
         <v>30000</v>
       </c>
@@ -741,8 +761,8 @@
         <v>3333333.3333333335</v>
       </c>
       <c r="H2" s="3">
-        <f>E2*30</f>
-        <v>900000</v>
+        <f>D2*30</f>
+        <v>1500000</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -756,23 +776,23 @@
       </c>
       <c r="L2" s="3">
         <f>H2-K2</f>
-        <v>700000</v>
+        <v>1300000</v>
       </c>
       <c r="M2" s="3">
         <f>L2*20%</f>
-        <v>140000</v>
+        <v>260000</v>
       </c>
       <c r="N2" s="3">
         <f>M2*50%</f>
-        <v>70000</v>
+        <v>130000</v>
       </c>
       <c r="O2" s="3">
         <f>M2-N2</f>
-        <v>70000</v>
+        <v>130000</v>
       </c>
       <c r="P2" s="3">
         <f>O2/I2</f>
-        <v>23333.333333333332</v>
+        <v>43333.333333333336</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -786,26 +806,27 @@
       </c>
       <c r="U2" s="3">
         <f>H2-T2</f>
-        <v>825000</v>
+        <v>1425000</v>
       </c>
       <c r="V2" s="3">
         <f>U2*100%</f>
-        <v>825000</v>
+        <v>1425000</v>
       </c>
       <c r="W2" s="3">
         <f>V2*50%</f>
-        <v>412500</v>
+        <v>712500</v>
       </c>
       <c r="X2" s="3">
         <f>V2*50%</f>
-        <v>412500</v>
+        <v>712500</v>
       </c>
       <c r="Y2" s="3">
         <f>X2/R2</f>
-        <v>412500</v>
+        <v>712500</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B3" s="10"/>
       <c r="C3" s="2">
         <v>1000000</v>
       </c>
@@ -813,7 +834,7 @@
         <f>C3*$A$2</f>
         <v>500000</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="11">
         <f>C3*$B$2</f>
         <v>300000</v>
       </c>
@@ -822,8 +843,8 @@
         <v>33333333.333333336</v>
       </c>
       <c r="H3" s="3">
-        <f>E3*30</f>
-        <v>9000000</v>
+        <f>D3*30</f>
+        <v>15000000</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -837,23 +858,23 @@
       </c>
       <c r="L3" s="3">
         <f>H3-K3</f>
-        <v>8700000</v>
+        <v>14700000</v>
       </c>
       <c r="M3" s="3">
         <f>L3*20%</f>
-        <v>1740000</v>
+        <v>2940000</v>
       </c>
       <c r="N3" s="3">
         <f>M3*50%</f>
-        <v>870000</v>
+        <v>1470000</v>
       </c>
       <c r="O3" s="3">
         <f>M3-N3</f>
-        <v>870000</v>
+        <v>1470000</v>
       </c>
       <c r="P3" s="3">
         <f>O3/I3</f>
-        <v>290000</v>
+        <v>490000</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -867,26 +888,27 @@
       </c>
       <c r="U3" s="3">
         <f>H3-T3</f>
-        <v>8925000</v>
+        <v>14925000</v>
       </c>
       <c r="V3" s="3">
         <f>U3*100%</f>
-        <v>8925000</v>
+        <v>14925000</v>
       </c>
       <c r="W3" s="3">
         <f>V3*50%</f>
-        <v>4462500</v>
+        <v>7462500</v>
       </c>
       <c r="X3" s="3">
         <f>V3*50%</f>
-        <v>4462500</v>
+        <v>7462500</v>
       </c>
       <c r="Y3" s="3">
         <f>X3/R3</f>
-        <v>4462500</v>
+        <v>7462500</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B4" s="10"/>
       <c r="C4" s="2">
         <f>C3*10</f>
         <v>10000000</v>
@@ -895,7 +917,7 @@
         <f>C4*$A$2</f>
         <v>5000000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="11">
         <f>C4*$B$2</f>
         <v>3000000</v>
       </c>
@@ -905,6 +927,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B5" s="10"/>
       <c r="C5" s="2">
         <v>10000</v>
       </c>
@@ -912,7 +935,7 @@
         <f>C5*$A$2</f>
         <v>5000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="11">
         <f>C5*$B$2</f>
         <v>3000</v>
       </c>
@@ -921,8 +944,8 @@
         <v>333333.33333333337</v>
       </c>
       <c r="H5" s="3">
-        <f>E5*30</f>
-        <v>90000</v>
+        <f>D5*30</f>
+        <v>150000</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -936,23 +959,23 @@
       </c>
       <c r="L5" s="3">
         <f>H5-K5</f>
-        <v>-10000</v>
+        <v>50000</v>
       </c>
       <c r="M5" s="3">
         <f>L5*20%</f>
-        <v>-2000</v>
+        <v>10000</v>
       </c>
       <c r="N5" s="3">
         <f>M5*50%</f>
-        <v>-1000</v>
+        <v>5000</v>
       </c>
       <c r="O5" s="3">
         <f>M5-N5</f>
-        <v>-1000</v>
+        <v>5000</v>
       </c>
       <c r="P5" s="3">
         <f>O5/I5</f>
-        <v>-333.33333333333331</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5">
@@ -967,26 +990,27 @@
       </c>
       <c r="U5" s="3">
         <f>H5-T5</f>
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="V5" s="3">
         <f>U5*100%</f>
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="W5" s="3">
         <f>V5*50%</f>
-        <v>7500</v>
+        <v>37500</v>
       </c>
       <c r="X5" s="3">
         <f>V5*50%</f>
-        <v>7500</v>
+        <v>37500</v>
       </c>
       <c r="Y5" s="3">
         <f>X5/R5</f>
-        <v>7500</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B6" s="10"/>
       <c r="C6" s="2">
         <v>7000</v>
       </c>
@@ -994,7 +1018,7 @@
         <f>C6*$A$2</f>
         <v>3500</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="11">
         <f>C6*$B$2</f>
         <v>2100</v>
       </c>
@@ -1003,8 +1027,8 @@
         <v>233333.33333333334</v>
       </c>
       <c r="H6" s="3">
-        <f>E6*30</f>
-        <v>63000</v>
+        <f>D6*30</f>
+        <v>105000</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -1018,23 +1042,23 @@
       </c>
       <c r="L6" s="3">
         <f>H6-K6</f>
-        <v>-37000</v>
+        <v>5000</v>
       </c>
       <c r="M6" s="3">
         <f>L6*20%</f>
-        <v>-7400</v>
+        <v>1000</v>
       </c>
       <c r="N6" s="3">
         <f>M6*50%</f>
-        <v>-3700</v>
+        <v>500</v>
       </c>
       <c r="O6" s="3">
         <f>M6-N6</f>
-        <v>-3700</v>
+        <v>500</v>
       </c>
       <c r="P6" s="3">
         <f>O6/I6</f>
-        <v>-1233.3333333333333</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="T6" s="3"/>

--- a/小游戏数据bak.xlsx
+++ b/小游戏数据bak.xlsx
@@ -268,16 +268,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,7 +645,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -671,7 +671,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -680,7 +680,7 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
@@ -742,7 +742,7 @@
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0.3</v>
       </c>
       <c r="C2" s="2">
@@ -752,7 +752,7 @@
         <f>C2*$A$2</f>
         <v>50000</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <f>C2*$B$2</f>
         <v>30000</v>
       </c>
@@ -779,20 +779,20 @@
         <v>1300000</v>
       </c>
       <c r="M2" s="3">
-        <f>L2*20%</f>
-        <v>260000</v>
+        <f>L2*30%</f>
+        <v>390000</v>
       </c>
       <c r="N2" s="3">
-        <f>M2*50%</f>
-        <v>130000</v>
+        <f>M2*40%</f>
+        <v>156000</v>
       </c>
       <c r="O2" s="3">
         <f>M2-N2</f>
-        <v>130000</v>
+        <v>234000</v>
       </c>
       <c r="P2" s="3">
         <f>O2/I2</f>
-        <v>43333.333333333336</v>
+        <v>78000</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -826,7 +826,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B3" s="10"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2">
         <v>1000000</v>
       </c>
@@ -834,7 +834,7 @@
         <f>C3*$A$2</f>
         <v>500000</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <f>C3*$B$2</f>
         <v>300000</v>
       </c>
@@ -861,20 +861,20 @@
         <v>14700000</v>
       </c>
       <c r="M3" s="3">
-        <f>L3*20%</f>
-        <v>2940000</v>
+        <f>L3*30%</f>
+        <v>4410000</v>
       </c>
       <c r="N3" s="3">
-        <f>M3*50%</f>
-        <v>1470000</v>
+        <f>M3*40%</f>
+        <v>1764000</v>
       </c>
       <c r="O3" s="3">
         <f>M3-N3</f>
-        <v>1470000</v>
+        <v>2646000</v>
       </c>
       <c r="P3" s="3">
         <f>O3/I3</f>
-        <v>490000</v>
+        <v>882000</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -908,7 +908,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B4" s="10"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2">
         <f>C3*10</f>
         <v>10000000</v>
@@ -917,7 +917,7 @@
         <f>C4*$A$2</f>
         <v>5000000</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <f>C4*$B$2</f>
         <v>3000000</v>
       </c>
@@ -927,7 +927,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B5" s="10"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2">
         <v>10000</v>
       </c>
@@ -935,7 +935,7 @@
         <f>C5*$A$2</f>
         <v>5000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f>C5*$B$2</f>
         <v>3000</v>
       </c>
@@ -962,20 +962,20 @@
         <v>50000</v>
       </c>
       <c r="M5" s="3">
-        <f>L5*20%</f>
-        <v>10000</v>
+        <f>L5*30%</f>
+        <v>15000</v>
       </c>
       <c r="N5" s="3">
-        <f>M5*50%</f>
-        <v>5000</v>
+        <f>M5*40%</f>
+        <v>6000</v>
       </c>
       <c r="O5" s="3">
         <f>M5-N5</f>
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P5" s="3">
         <f>O5/I5</f>
-        <v>1666.6666666666667</v>
+        <v>3000</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5">
@@ -1010,7 +1010,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B6" s="10"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2">
         <v>7000</v>
       </c>
@@ -1018,7 +1018,7 @@
         <f>C6*$A$2</f>
         <v>3500</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f>C6*$B$2</f>
         <v>2100</v>
       </c>
@@ -1045,20 +1045,20 @@
         <v>5000</v>
       </c>
       <c r="M6" s="3">
-        <f>L6*20%</f>
-        <v>1000</v>
+        <f>L6*30%</f>
+        <v>1500</v>
       </c>
       <c r="N6" s="3">
-        <f>M6*50%</f>
-        <v>500</v>
+        <f>M6*40%</f>
+        <v>600</v>
       </c>
       <c r="O6" s="3">
         <f>M6-N6</f>
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="P6" s="3">
         <f>O6/I6</f>
-        <v>166.66666666666666</v>
+        <v>300</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="T6" s="3"/>
@@ -1179,11 +1179,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
     </row>

--- a/小游戏数据bak.xlsx
+++ b/小游戏数据bak.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="重要政策" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="重要政策" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -76,8 +77,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+办公室，社保公积金，福利</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>新分成比例（流水）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +220,34 @@
   </si>
   <si>
     <t>海盗来了（内购+广告）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持部门均摊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人其他开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团建人均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +710,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1170,6 +1235,561 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <f>(3.5+3+1.4)/$B$2</f>
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>0.05</v>
+      </c>
+      <c r="G2">
+        <f>SUM(D2:F2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H2" s="5">
+        <f>C2+G2</f>
+        <v>3.1833333333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C16" si="0">$B5*$C$2</f>
+        <v>7.9</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D16" si="1">$B5*$D$2</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E16" si="2">$B5*$E$2</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F16" si="3">$B5*$F$2</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G16" si="4">$B5*$G$2</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H5">
+        <f>C5+G5</f>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J5">
+        <f>H5</f>
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f>B5</f>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H16" si="5">C6+G6</f>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J6">
+        <f>H6+J5</f>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B16" si="6">B6</f>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J7">
+        <f>H7+J6</f>
+        <v>28.650000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J8">
+        <f>H8+J7</f>
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J9">
+        <f>H9+J8</f>
+        <v>47.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J10">
+        <f>H10+J9</f>
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J11">
+        <f>H11+J10</f>
+        <v>66.849999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J12">
+        <f>H12+J11</f>
+        <v>76.399999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J13">
+        <f>H13+J12</f>
+        <v>85.949999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J14">
+        <f>H14+J13</f>
+        <v>95.499999999999986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J15">
+        <f>H15+J14</f>
+        <v>105.04999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J16">
+        <f>H16+J15</f>
+        <v>114.59999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(B6:B16)</f>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C5:C16)</f>
+        <v>94.800000000000011</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D5:D16)</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E5:E16)</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="F17">
+        <f>SUM(F5:F16)</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G17">
+        <f>SUM(G5:G16)</f>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="H17">
+        <f>SUM(H5:H16)</f>
+        <v>114.59999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/小游戏数据bak.xlsx
+++ b/小游戏数据bak.xlsx
@@ -326,9 +326,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -710,7 +709,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -733,19 +732,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
@@ -804,28 +803,28 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>0.5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>100000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f>C2*$A$2</f>
         <v>50000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f>C2*$B$2</f>
         <v>30000</v>
       </c>
-      <c r="F2" s="2">
-        <f>C2/$A$14</f>
-        <v>3333333.3333333335</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="F2" s="1">
+        <f>D2/$A$14</f>
+        <v>1666666.6666666667</v>
+      </c>
+      <c r="H2" s="2">
         <f>D2*30</f>
         <v>1500000</v>
       </c>
@@ -835,27 +834,27 @@
       <c r="J2">
         <v>2</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <f>100000/3*I2*J2</f>
         <v>200000</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <f>H2-K2</f>
         <v>1300000</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <f>L2*30%</f>
         <v>390000</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <f>M2*40%</f>
         <v>156000</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <f>M2-N2</f>
         <v>234000</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <f>O2/I2</f>
         <v>78000</v>
       </c>
@@ -865,49 +864,50 @@
       <c r="S2">
         <v>3</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <f>25000*R2*S2</f>
         <v>75000</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <f>H2-T2</f>
         <v>1425000</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <f>U2*100%</f>
         <v>1425000</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="2">
         <f>V2*50%</f>
         <v>712500</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="2">
         <f>V2*50%</f>
         <v>712500</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="2">
         <f>X2/R2</f>
         <v>712500</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B3" s="8"/>
-      <c r="C3" s="2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8">
         <v>1000000</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>C3*$A$2</f>
         <v>500000</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>C3*$B$2</f>
         <v>300000</v>
       </c>
-      <c r="F3" s="2">
-        <f>C3/$A$14</f>
-        <v>33333333.333333336</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F6" si="0">D3/$A$14</f>
+        <v>16666666.666666668</v>
+      </c>
+      <c r="H3" s="2">
         <f>D3*30</f>
         <v>15000000</v>
       </c>
@@ -917,27 +917,27 @@
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <f>100000/3*I3*J3</f>
         <v>300000</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <f>H3-K3</f>
         <v>14700000</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <f>L3*30%</f>
         <v>4410000</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <f>M3*40%</f>
         <v>1764000</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <f>M3-N3</f>
         <v>2646000</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <f>O3/I3</f>
         <v>882000</v>
       </c>
@@ -947,68 +947,70 @@
       <c r="S3">
         <v>3</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <f>25000*R3*S3</f>
         <v>75000</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <f>H3-T3</f>
         <v>14925000</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="2">
         <f>U3*100%</f>
         <v>14925000</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="2">
         <f>V3*50%</f>
         <v>7462500</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="2">
         <f>V3*50%</f>
         <v>7462500</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="2">
         <f>X3/R3</f>
         <v>7462500</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B4" s="8"/>
-      <c r="C4" s="2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
         <f>C3*10</f>
         <v>10000000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>C4*$A$2</f>
         <v>5000000</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f>C4*$B$2</f>
         <v>3000000</v>
       </c>
-      <c r="F4" s="2">
-        <f>C4/$A$14</f>
-        <v>333333333.33333337</v>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>166666666.66666669</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8">
         <v>10000</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>C5*$A$2</f>
         <v>5000</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f>C5*$B$2</f>
         <v>3000</v>
       </c>
-      <c r="F5" s="2">
-        <f>C5/$A$14</f>
-        <v>333333.33333333337</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>166666.66666666669</v>
+      </c>
+      <c r="H5" s="2">
         <f>D5*30</f>
         <v>150000</v>
       </c>
@@ -1018,80 +1020,81 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <f>100000/3*I5*J5</f>
         <v>100000</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f>H5-K5</f>
         <v>50000</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <f>L5*30%</f>
         <v>15000</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <f>M5*40%</f>
         <v>6000</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <f>M5-N5</f>
         <v>9000</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <f>O5/I5</f>
         <v>3000</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="2"/>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2">
         <f>25000*R5*S5</f>
         <v>75000</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="2">
         <f>H5-T5</f>
         <v>75000</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="2">
         <f>U5*100%</f>
         <v>75000</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="2">
         <f>V5*50%</f>
         <v>37500</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="2">
         <f>V5*50%</f>
         <v>37500</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="2">
         <f>X5/R5</f>
         <v>37500</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8">
         <v>7000</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>C6*$A$2</f>
         <v>3500</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f>C6*$B$2</f>
         <v>2100</v>
       </c>
-      <c r="F6" s="2">
-        <f>C6/$A$14</f>
-        <v>233333.33333333334</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>116666.66666666667</v>
+      </c>
+      <c r="H6" s="2">
         <f>D6*30</f>
         <v>105000</v>
       </c>
@@ -1101,37 +1104,37 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <f>100000/3*I6*J6</f>
         <v>100000</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <f>H6-K6</f>
         <v>5000</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <f>L6*30%</f>
         <v>1500</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <f>M6*40%</f>
         <v>600</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <f>M6-N6</f>
         <v>900</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <f>O6/I6</f>
         <v>300</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="Q6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1139,12 +1142,12 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>20000</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>40000</v>
       </c>
     </row>
@@ -1154,7 +1157,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f>AVERAGE(A9:A10)</f>
         <v>30000</v>
       </c>
@@ -1165,7 +1168,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <f>A12/1000000</f>
         <v>0.03</v>
       </c>
@@ -1191,17 +1194,17 @@
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>10000000</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f>B18/30</f>
         <v>333333.33333333331</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>5200000</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <f>C18/D18</f>
         <v>6.4102564102564097E-2</v>
       </c>
@@ -1210,17 +1213,17 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>100000000</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f>B19/30</f>
         <v>3333333.3333333335</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>20000000</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <f>C19/D19</f>
         <v>0.16666666666666669</v>
       </c>
@@ -1279,7 +1282,7 @@
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>(3.5+3+1.4)/$B$2</f>
         <v>2.6333333333333333</v>
       </c>
@@ -1296,7 +1299,7 @@
         <f>SUM(D2:F2)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f>C2+G2</f>
         <v>3.1833333333333336</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="J6">
-        <f>H6+J5</f>
+        <f t="shared" ref="J6:J16" si="6">H6+J5</f>
         <v>19.100000000000001</v>
       </c>
     </row>
@@ -1384,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B16" si="6">B6</f>
+        <f t="shared" ref="B7:B16" si="7">B6</f>
         <v>3</v>
       </c>
       <c r="C7">
@@ -1412,7 +1415,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="J7">
-        <f>H7+J6</f>
+        <f t="shared" si="6"/>
         <v>28.650000000000002</v>
       </c>
     </row>
@@ -1421,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C8">
@@ -1449,7 +1452,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="J8">
-        <f>H8+J7</f>
+        <f t="shared" si="6"/>
         <v>38.200000000000003</v>
       </c>
     </row>
@@ -1458,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C9">
@@ -1486,7 +1489,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="J9">
-        <f>H9+J8</f>
+        <f t="shared" si="6"/>
         <v>47.75</v>
       </c>
     </row>
@@ -1495,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C10">
@@ -1523,7 +1526,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="J10">
-        <f>H10+J9</f>
+        <f t="shared" si="6"/>
         <v>57.3</v>
       </c>
     </row>
@@ -1532,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C11">
@@ -1560,7 +1563,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="J11">
-        <f>H11+J10</f>
+        <f t="shared" si="6"/>
         <v>66.849999999999994</v>
       </c>
     </row>
@@ -1569,7 +1572,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C12">
@@ -1597,7 +1600,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="J12">
-        <f>H12+J11</f>
+        <f t="shared" si="6"/>
         <v>76.399999999999991</v>
       </c>
     </row>
@@ -1606,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C13">
@@ -1634,7 +1637,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="J13">
-        <f>H13+J12</f>
+        <f t="shared" si="6"/>
         <v>85.949999999999989</v>
       </c>
     </row>
@@ -1643,7 +1646,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C14">
@@ -1671,7 +1674,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="J14">
-        <f>H14+J13</f>
+        <f t="shared" si="6"/>
         <v>95.499999999999986</v>
       </c>
     </row>
@@ -1680,7 +1683,7 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C15">
@@ -1708,7 +1711,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="J15">
-        <f>H15+J14</f>
+        <f t="shared" si="6"/>
         <v>105.04999999999998</v>
       </c>
     </row>
@@ -1717,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C16">
@@ -1745,7 +1748,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="J16">
-        <f>H16+J15</f>
+        <f t="shared" si="6"/>
         <v>114.59999999999998</v>
       </c>
     </row>
@@ -1758,27 +1761,27 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <f>SUM(C5:C16)</f>
+        <f t="shared" ref="C17:H17" si="8">SUM(C5:C16)</f>
         <v>94.800000000000011</v>
       </c>
       <c r="D17">
-        <f>SUM(D5:D16)</f>
+        <f t="shared" si="8"/>
         <v>14.399999999999999</v>
       </c>
       <c r="E17">
-        <f>SUM(E5:E16)</f>
+        <f t="shared" si="8"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="F17">
-        <f>SUM(F5:F16)</f>
+        <f t="shared" si="8"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="G17">
-        <f>SUM(G5:G16)</f>
+        <f t="shared" si="8"/>
         <v>19.799999999999997</v>
       </c>
       <c r="H17">
-        <f>SUM(H5:H16)</f>
+        <f t="shared" si="8"/>
         <v>114.59999999999998</v>
       </c>
     </row>
@@ -1799,11 +1802,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="11"/>
+    <col min="1" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
     </row>

--- a/小游戏数据bak.xlsx
+++ b/小游戏数据bak.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>新分成比例（流水）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,14 +724,11 @@
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="10.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
-    <col min="21" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -777,32 +774,8 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>0.5</v>
       </c>
@@ -822,74 +795,44 @@
       </c>
       <c r="F2" s="1">
         <f>D2/$A$14</f>
-        <v>1666666.6666666667</v>
+        <v>1000000</v>
       </c>
       <c r="H2" s="2">
         <f>D2*30</f>
         <v>1500000</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2" s="2">
-        <f>100000/3*I2*J2</f>
-        <v>200000</v>
+        <f>10000*I2*J2</f>
+        <v>20000</v>
       </c>
       <c r="L2" s="2">
         <f>H2-K2</f>
-        <v>1300000</v>
+        <v>1480000</v>
       </c>
       <c r="M2" s="2">
         <f>L2*30%</f>
-        <v>390000</v>
+        <v>444000</v>
       </c>
       <c r="N2" s="2">
         <f>M2*40%</f>
-        <v>156000</v>
+        <v>177600</v>
       </c>
       <c r="O2" s="2">
         <f>M2-N2</f>
-        <v>234000</v>
+        <v>266400</v>
       </c>
       <c r="P2" s="2">
         <f>O2/I2</f>
-        <v>78000</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2" s="2">
-        <f>25000*R2*S2</f>
-        <v>75000</v>
-      </c>
-      <c r="U2" s="2">
-        <f>H2-T2</f>
-        <v>1425000</v>
-      </c>
-      <c r="V2" s="2">
-        <f>U2*100%</f>
-        <v>1425000</v>
-      </c>
-      <c r="W2" s="2">
-        <f>V2*50%</f>
-        <v>712500</v>
-      </c>
-      <c r="X2" s="2">
-        <f>V2*50%</f>
-        <v>712500</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>X2/R2</f>
-        <v>712500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+        <v>266400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8">
@@ -905,74 +848,44 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F6" si="0">D3/$A$14</f>
-        <v>16666666.666666668</v>
+        <v>10000000</v>
       </c>
       <c r="H3" s="2">
         <f>D3*30</f>
         <v>15000000</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" s="2">
-        <f>100000/3*I3*J3</f>
-        <v>300000</v>
+        <f>10000*I3*J3</f>
+        <v>30000</v>
       </c>
       <c r="L3" s="2">
         <f>H3-K3</f>
-        <v>14700000</v>
+        <v>14970000</v>
       </c>
       <c r="M3" s="2">
         <f>L3*30%</f>
-        <v>4410000</v>
+        <v>4491000</v>
       </c>
       <c r="N3" s="2">
         <f>M3*40%</f>
-        <v>1764000</v>
+        <v>1796400</v>
       </c>
       <c r="O3" s="2">
         <f>M3-N3</f>
-        <v>2646000</v>
+        <v>2694600</v>
       </c>
       <c r="P3" s="2">
         <f>O3/I3</f>
-        <v>882000</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3" s="2">
-        <f>25000*R3*S3</f>
-        <v>75000</v>
-      </c>
-      <c r="U3" s="2">
-        <f>H3-T3</f>
-        <v>14925000</v>
-      </c>
-      <c r="V3" s="2">
-        <f>U3*100%</f>
-        <v>14925000</v>
-      </c>
-      <c r="W3" s="2">
-        <f>V3*50%</f>
-        <v>7462500</v>
-      </c>
-      <c r="X3" s="2">
-        <f>V3*50%</f>
-        <v>7462500</v>
-      </c>
-      <c r="Y3" s="2">
-        <f>X3/R3</f>
-        <v>7462500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+        <v>2694600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -989,10 +902,10 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>166666666.66666669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8">
@@ -1008,169 +921,132 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>166666.66666666669</v>
+        <v>100000</v>
       </c>
       <c r="H5" s="2">
         <f>D5*30</f>
         <v>150000</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="2">
-        <f>100000/3*I5*J5</f>
-        <v>100000</v>
+        <f>10000*I5*J5</f>
+        <v>10000</v>
       </c>
       <c r="L5" s="2">
         <f>H5-K5</f>
-        <v>50000</v>
+        <v>140000</v>
       </c>
       <c r="M5" s="2">
         <f>L5*30%</f>
-        <v>15000</v>
+        <v>42000</v>
       </c>
       <c r="N5" s="2">
         <f>M5*40%</f>
-        <v>6000</v>
+        <v>16800</v>
       </c>
       <c r="O5" s="2">
         <f>M5-N5</f>
-        <v>9000</v>
+        <v>25200</v>
       </c>
       <c r="P5" s="2">
         <f>O5/I5</f>
-        <v>3000</v>
+        <v>25200</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5" s="2">
-        <f>25000*R5*S5</f>
-        <v>75000</v>
-      </c>
-      <c r="U5" s="2">
-        <f>H5-T5</f>
-        <v>75000</v>
-      </c>
-      <c r="V5" s="2">
-        <f>U5*100%</f>
-        <v>75000</v>
-      </c>
-      <c r="W5" s="2">
-        <f>V5*50%</f>
-        <v>37500</v>
-      </c>
-      <c r="X5" s="2">
-        <f>V5*50%</f>
-        <v>37500</v>
-      </c>
-      <c r="Y5" s="2">
-        <f>X5/R5</f>
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8">
-        <v>7000</v>
+        <v>400</v>
       </c>
       <c r="D6" s="1">
         <f>C6*$A$2</f>
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="E6" s="8">
         <f>C6*$B$2</f>
-        <v>2100</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>116666.66666666667</v>
+        <v>4000</v>
       </c>
       <c r="H6" s="2">
         <f>D6*30</f>
-        <v>105000</v>
+        <v>6000</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" s="2">
-        <f>100000/3*I6*J6</f>
-        <v>100000</v>
+        <f>10000*I6*J6</f>
+        <v>10000</v>
       </c>
       <c r="L6" s="2">
         <f>H6-K6</f>
-        <v>5000</v>
+        <v>-4000</v>
       </c>
       <c r="M6" s="2">
         <f>L6*30%</f>
-        <v>1500</v>
+        <v>-1200</v>
       </c>
       <c r="N6" s="2">
         <f>M6*40%</f>
-        <v>600</v>
+        <v>-480</v>
       </c>
       <c r="O6" s="2">
         <f>M6-N6</f>
-        <v>900</v>
+        <v>-720</v>
       </c>
       <c r="P6" s="2">
         <f>O6/I6</f>
-        <v>300</v>
+        <v>-720</v>
       </c>
       <c r="Q6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>40000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <f>AVERAGE(A9:A10)</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <f>A12/1000000</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
